--- a/medicine/Enfance/Alain_Korkos/Alain_Korkos.xlsx
+++ b/medicine/Enfance/Alain_Korkos/Alain_Korkos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Korkos, né en 1955 à Paris, est un illustrateur et écrivain français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Korkos exerce différents métiers d'employé avant de se consacrer au dessin qu'il pratique depuis l'enfance. Il commence comme illustrateur de livres pour la jeunesse, puis devient l'auteur de romans pour la jeunesse. En 1996, il reçoit avec Sylvie Desrosiers le prix 12/17 Brive-Montréal.
-Il écrit également des chroniques pour le site Arrêt sur images qu'il quitte fin avril 2017[1].
+Il écrit également des chroniques pour le site Arrêt sur images qu'il quitte fin avril 2017.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1996 : En attendant Éliane, éditions Syros  (ISBN 978-2-266-12208-5),
 1999 : Pas de myosotis pour miss Bérénice,  (ISBN 978-2-84146-764-8) et Le Boubou du marabout,  (ISBN 978-2-84146-758-7), éditions Syros
@@ -586,9 +602,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 : prix Historia du livre jeunesse 2018[2] pour Petites Histoires d'impressionnisme en 50 chefs-d'œuvre.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2018 : prix Historia du livre jeunesse 2018 pour Petites Histoires d'impressionnisme en 50 chefs-d'œuvre.</t>
         </is>
       </c>
     </row>
